--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:32:23+10:00</t>
+    <t>2024-06-13T06:51:52+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T06:51:52+10:00</t>
+    <t>2024-06-13T11:16:16+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-14T06:31:35+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-13T11:16:16+10:00</t>
+    <t>2024-06-18T16:49:21+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1699,7 +1699,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-organization)
+    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T16:49:21+10:00</t>
+    <t>2024-06-18T18:40:58+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T18:40:58+10:00</t>
+    <t>2024-06-21T10:51:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T10:51:28+10:00</t>
+    <t>2024-06-21T11:31:43+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T11:31:43+10:00</t>
+    <t>2024-06-25T09:09:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1628,7 +1628,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/ecr/StructureDefinition/us-ph-location)
 </t>
   </si>
   <si>
@@ -1699,7 +1699,7 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.org/fhir/us/anonymized-eicr/StructureDefinition/eicr-anon-org-tele-addr)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/ecr/StructureDefinition/us-ph-organization)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T09:09:40+10:00</t>
+    <t>2024-06-26T05:55:02+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T05:55:02+10:00</t>
+    <t>2024-06-26T06:31:28+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,8 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This Encounter profile represents an anonymized eICR Encounter.
-It is based on the **eICR Encounter** profile with further constraints to require masking of some data elements.</t>
+    <t>This Encounter profile represents an anonymized eICR Encounter.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:31:28+10:00</t>
+    <t>2024-06-26T06:54:29+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$103</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3391" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="594">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T06:54:29+10:00</t>
+    <t>2024-06-28T19:57:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -392,7 +392,188 @@
     <t>DomainResource.text</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+  </si>
+  <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension:dataAbsentReason</t>
+  </si>
+  <si>
+    <t>dataAbsentReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {data-absent-reason}
+</t>
+  </si>
+  <si>
+    <t>Use data-absent-reason with value 'masked'</t>
+  </si>
+  <si>
+    <t>Provides a reason why the expected value or elements in the element that is extended are missing.</t>
+  </si>
+  <si>
+    <t>ANY.nullFlavor</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension:dataAbsentReason.id</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension:dataAbsentReason.extension</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension.extension</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension:dataAbsentReason.url</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension:dataAbsentReason.value[x]</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>masked</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
+</t>
+  </si>
+  <si>
+    <t>Encounter.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>Encounter.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Set to '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Encounter.contained</t>
@@ -418,9 +599,6 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Encounter.extension</t>
   </si>
   <si>
@@ -428,10 +606,6 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Additional content defined by implementations</t>
   </si>
   <si>
@@ -442,10 +616,6 @@
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -492,41 +662,12 @@
     <t>Encounter.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Encounter.identifier.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Encounter.identifier.use</t>
   </si>
   <si>
@@ -540,9 +681,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
@@ -1297,12 +1435,6 @@
     <t>Encounter.diagnosis.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Encounter.diagnosis.extension:sliceEncounterDiagnosisTrigger</t>
   </si>
   <si>
@@ -1317,10 +1449,6 @@
   </si>
   <si>
     <t>A flag to indicate that the **target** reference represents a triggering event and caused the report to be generated.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Encounter.diagnosis.modifierExtension</t>
@@ -2049,7 +2177,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2886,13 +3014,13 @@
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2903,21 +3031,21 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2937,9 +3065,7 @@
       <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="N8" t="s" s="2">
-        <v>127</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>78</v>
@@ -2988,25 +3114,25 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -3017,18 +3143,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -3043,17 +3169,15 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>78</v>
@@ -3090,16 +3214,16 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -3120,7 +3244,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -3134,43 +3258,41 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>78</v>
       </c>
@@ -3218,7 +3340,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3236,7 +3358,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -3247,10 +3369,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3258,28 +3380,28 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3330,39 +3452,39 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>150</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3373,7 +3495,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3385,13 +3507,13 @@
         <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3430,37 +3552,37 @@
         <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3471,21 +3593,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3497,16 +3619,16 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3514,7 +3636,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3544,31 +3666,31 @@
         <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3585,10 +3707,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3596,7 +3718,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>86</v>
@@ -3605,32 +3727,28 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3648,13 +3766,11 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3672,7 +3788,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3681,7 +3797,7 @@
         <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>78</v>
+        <v>165</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>98</v>
@@ -3690,21 +3806,21 @@
         <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3712,7 +3828,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3724,23 +3840,19 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3764,13 +3876,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3788,10 +3900,10 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3806,21 +3918,21 @@
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3834,29 +3946,27 @@
         <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3868,7 +3978,7 @@
         <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>78</v>
@@ -3904,10 +4014,10 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
@@ -3916,59 +4026,59 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3982,7 +4092,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -4018,50 +4128,50 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -4070,18 +4180,20 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4130,73 +4242,75 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4244,39 +4358,39 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4293,23 +4407,21 @@
         <v>87</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4334,13 +4446,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -4358,13 +4470,13 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
@@ -4373,24 +4485,24 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4401,7 +4513,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4413,17 +4525,15 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>124</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4472,25 +4582,25 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4501,21 +4611,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4527,15 +4637,17 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4572,37 +4684,37 @@
         <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>78</v>
@@ -4613,44 +4725,46 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4674,13 +4788,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4698,74 +4812,74 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4790,13 +4904,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4814,39 +4928,39 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>129</v>
+        <v>216</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4860,25 +4974,29 @@
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4890,7 +5008,7 @@
         <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>78</v>
@@ -4902,13 +5020,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4926,10 +5044,10 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
@@ -4944,21 +5062,21 @@
         <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4972,24 +5090,26 @@
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5002,7 +5122,7 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>241</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -5038,10 +5158,10 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -5056,21 +5176,21 @@
         <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5078,13 +5198,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -5093,13 +5213,13 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5126,13 +5246,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5150,10 +5270,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -5168,21 +5288,21 @@
         <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5193,7 +5313,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5202,18 +5322,20 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5262,13 +5384,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -5280,21 +5402,21 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5302,30 +5424,32 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>153</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5350,13 +5474,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5374,10 +5498,10 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -5386,31 +5510,31 @@
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5429,16 +5553,16 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>133</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>158</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>135</v>
+        <v>274</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5488,7 +5612,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -5500,13 +5624,13 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>78</v>
@@ -5517,46 +5641,42 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5604,25 +5724,25 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5633,21 +5753,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5659,15 +5779,17 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>243</v>
+        <v>130</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>258</v>
+        <v>188</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5692,13 +5814,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5716,25 +5838,25 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5745,42 +5867,46 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5828,19 +5954,19 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5857,10 +5983,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5871,29 +5997,27 @@
         <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>174</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5918,13 +6042,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5942,13 +6066,13 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
@@ -5957,24 +6081,24 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5982,7 +6106,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5994,16 +6118,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6030,13 +6154,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6054,10 +6178,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
@@ -6069,24 +6193,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>278</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6094,28 +6218,28 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6142,13 +6266,13 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>275</v>
+        <v>223</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -6166,10 +6290,10 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -6184,54 +6308,52 @@
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6280,13 +6402,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6295,24 +6417,24 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>293</v>
+        <v>78</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6323,7 +6445,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6332,16 +6454,16 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>125</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>126</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6392,43 +6514,43 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>301</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>303</v>
+        <v>187</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6447,15 +6569,17 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>304</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6504,7 +6628,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>302</v>
+        <v>136</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6516,13 +6640,13 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>308</v>
+        <v>128</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6533,14 +6657,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6550,25 +6674,29 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>227</v>
+        <v>130</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6604,17 +6732,19 @@
         <v>78</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6626,27 +6756,27 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>314</v>
+        <v>156</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>315</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6654,7 +6784,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -6669,13 +6799,13 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>154</v>
+        <v>303</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6702,13 +6832,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>290</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6726,10 +6856,10 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>155</v>
+        <v>301</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>86</v>
@@ -6738,13 +6868,13 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6755,21 +6885,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6781,17 +6911,15 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>246</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6840,25 +6968,25 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6869,46 +6997,44 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6932,13 +7058,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6956,7 +7082,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6968,27 +7094,27 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6999,10 +7125,10 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
@@ -7011,17 +7137,15 @@
         <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7046,14 +7170,14 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>179</v>
+        <v>319</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7070,13 +7194,13 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
@@ -7085,24 +7209,24 @@
         <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7116,7 +7240,7 @@
         <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
@@ -7125,13 +7249,13 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7158,13 +7282,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>78</v>
+        <v>325</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>326</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -7182,7 +7306,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7200,29 +7324,29 @@
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>328</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>86</v>
@@ -7237,15 +7361,17 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7294,7 +7420,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7309,28 +7435,26 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7339,10 +7463,10 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
@@ -7351,13 +7475,13 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7408,7 +7532,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7423,35 +7547,35 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>314</v>
+        <v>128</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>315</v>
+        <v>345</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>78</v>
+        <v>347</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7463,13 +7587,13 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>152</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>153</v>
+        <v>349</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>154</v>
+        <v>350</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7520,25 +7644,25 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>155</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>156</v>
+        <v>352</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7549,14 +7673,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7566,26 +7690,24 @@
         <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7622,19 +7744,17 @@
         <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>162</v>
+        <v>353</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7646,63 +7766,59 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7750,25 +7866,25 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>237</v>
+        <v>127</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7779,42 +7895,42 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>321</v>
+        <v>207</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>322</v>
+        <v>190</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7825,7 +7941,7 @@
         <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>78</v>
@@ -7840,13 +7956,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>321</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7864,7 +7980,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>319</v>
+        <v>136</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7876,59 +7992,63 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>325</v>
+        <v>128</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>326</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I52" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -7976,39 +8096,39 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>327</v>
+        <v>281</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>330</v>
+        <v>156</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8016,10 +8136,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>87</v>
@@ -8031,15 +8151,17 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>350</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8064,13 +8186,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8088,13 +8210,13 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
@@ -8103,24 +8225,24 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8131,25 +8253,25 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8200,13 +8322,13 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
@@ -8215,24 +8337,24 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>307</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>357</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8240,7 +8362,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>86</v>
@@ -8252,20 +8374,18 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8314,7 +8434,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8329,26 +8449,28 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>78</v>
       </c>
@@ -8360,22 +8482,22 @@
         <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>153</v>
+        <v>386</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>154</v>
+        <v>355</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8426,50 +8548,50 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>156</v>
+        <v>358</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8481,17 +8603,15 @@
         <v>78</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8528,37 +8648,37 @@
         <v>78</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8569,42 +8689,42 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>130</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>371</v>
+        <v>207</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>372</v>
+        <v>190</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8654,79 +8774,79 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>373</v>
+        <v>136</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>375</v>
+        <v>128</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>376</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>369</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>379</v>
+        <v>280</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q59" t="s" s="2">
-        <v>381</v>
-      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
         <v>78</v>
       </c>
@@ -8770,39 +8890,39 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>382</v>
+        <v>281</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>383</v>
+        <v>156</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8810,31 +8930,31 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="M60" t="s" s="2">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8845,7 +8965,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>78</v>
+        <v>391</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -8860,13 +8980,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -8884,13 +9004,13 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
@@ -8899,16 +9019,16 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" hidden="true">
@@ -8916,18 +9036,18 @@
         <v>392</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>87</v>
@@ -8936,20 +9056,18 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -8974,13 +9092,13 @@
         <v>78</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>78</v>
@@ -8998,13 +9116,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -9013,32 +9131,32 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>402</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>86</v>
@@ -9053,17 +9171,15 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9112,13 +9228,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9127,24 +9243,24 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9158,7 +9274,7 @@
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -9167,13 +9283,13 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9224,7 +9340,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9239,24 +9355,24 @@
         <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>351</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9264,13 +9380,13 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>78</v>
@@ -9279,15 +9395,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9336,7 +9454,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>155</v>
+        <v>402</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9348,19 +9466,19 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>156</v>
+        <v>407</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -9379,10 +9497,10 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>78</v>
@@ -9391,13 +9509,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>411</v>
+        <v>125</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>412</v>
+        <v>126</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9436,35 +9554,37 @@
         <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AC65" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
@@ -9475,26 +9595,24 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>78</v>
@@ -9503,15 +9621,17 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>415</v>
+        <v>130</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>416</v>
+        <v>188</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9548,19 +9668,19 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9569,7 +9689,7 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>137</v>
@@ -9578,7 +9698,7 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
@@ -9589,46 +9709,44 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>235</v>
+        <v>414</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>236</v>
+        <v>415</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9676,53 +9794,53 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>237</v>
+        <v>417</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>129</v>
+        <v>419</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>78</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>78</v>
@@ -9731,22 +9849,24 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9790,39 +9910,39 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>418</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9836,7 +9956,7 @@
         <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>78</v>
@@ -9845,15 +9965,17 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>174</v>
+        <v>430</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9878,13 +10000,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>432</v>
+        <v>78</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -9902,7 +10024,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -9917,55 +10039,57 @@
         <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>78</v>
+        <v>406</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>156</v>
+        <v>434</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>434</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
@@ -9990,13 +10114,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10014,13 +10138,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10029,56 +10153,56 @@
         <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>78</v>
+        <v>437</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10128,7 +10252,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -10143,24 +10267,24 @@
         <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>78</v>
+        <v>446</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10171,7 +10295,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>87</v>
@@ -10180,20 +10304,18 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10242,13 +10364,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10260,7 +10382,7 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10271,10 +10393,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10297,13 +10419,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10354,7 +10476,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10372,7 +10494,7 @@
         <v>78</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>78</v>
@@ -10383,14 +10505,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10400,7 +10522,7 @@
         <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>78</v>
@@ -10409,17 +10531,15 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10456,19 +10576,17 @@
         <v>78</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC74" s="2"/>
       <c r="AD74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10486,7 +10604,7 @@
         <v>78</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>78</v>
@@ -10497,46 +10615,44 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C75" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="D75" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>457</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>235</v>
+        <v>458</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>78</v>
       </c>
@@ -10584,7 +10700,7 @@
         <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
@@ -10593,7 +10709,7 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>137</v>
@@ -10602,7 +10718,7 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>78</v>
@@ -10613,42 +10729,46 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>453</v>
+        <v>279</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
       </c>
@@ -10696,70 +10816,72 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>452</v>
+        <v>281</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>78</v>
+        <v>462</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10808,10 +10930,10 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>86</v>
@@ -10823,24 +10945,24 @@
         <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>78</v>
+        <v>466</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>78</v>
+        <v>445</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10854,7 +10976,7 @@
         <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>78</v>
@@ -10863,13 +10985,13 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10899,10 +11021,10 @@
         <v>110</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10920,7 +11042,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10938,21 +11060,21 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>466</v>
+        <v>128</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10975,13 +11097,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>174</v>
+        <v>475</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11008,13 +11130,13 @@
         <v>78</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>471</v>
+        <v>78</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>78</v>
@@ -11032,7 +11154,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -11050,21 +11172,21 @@
         <v>78</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>156</v>
+        <v>478</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11087,20 +11209,18 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>174</v>
+        <v>480</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
       </c>
@@ -11124,31 +11244,31 @@
         <v>78</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -11166,21 +11286,21 @@
         <v>78</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>482</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11191,10 +11311,10 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>78</v>
@@ -11203,15 +11323,17 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>174</v>
+        <v>271</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11236,13 +11358,13 @@
         <v>78</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>486</v>
+        <v>78</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>487</v>
+        <v>78</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>78</v>
@@ -11260,13 +11382,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -11278,13 +11400,13 @@
         <v>78</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>489</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -11303,7 +11425,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>78</v>
@@ -11315,13 +11437,13 @@
         <v>78</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>491</v>
+        <v>125</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>492</v>
+        <v>126</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11348,13 +11470,13 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>493</v>
+        <v>78</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>494</v>
+        <v>78</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11372,50 +11494,50 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>490</v>
+        <v>127</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>495</v>
+        <v>128</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>496</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>78</v>
@@ -11427,15 +11549,17 @@
         <v>78</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>457</v>
+        <v>130</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>498</v>
+        <v>188</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11484,71 +11608,75 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>497</v>
+        <v>136</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>500</v>
+        <v>128</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>501</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I84" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J84" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>503</v>
+        <v>279</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
       </c>
@@ -11572,13 +11700,13 @@
         <v>78</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>505</v>
+        <v>78</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>506</v>
+        <v>78</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>78</v>
@@ -11596,39 +11724,39 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>502</v>
+        <v>281</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>507</v>
+        <v>156</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>508</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11636,13 +11764,13 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>78</v>
@@ -11651,17 +11779,15 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -11710,13 +11836,13 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>78</v>
@@ -11728,21 +11854,21 @@
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>513</v>
+        <v>202</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11765,13 +11891,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>154</v>
+        <v>500</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11822,7 +11948,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>155</v>
+        <v>497</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -11834,13 +11960,13 @@
         <v>78</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>156</v>
+        <v>501</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -11851,21 +11977,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>78</v>
@@ -11877,17 +12003,15 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>133</v>
+        <v>503</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>78</v>
@@ -11912,13 +12036,13 @@
         <v>78</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>78</v>
+        <v>505</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>78</v>
+        <v>506</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>78</v>
@@ -11936,75 +12060,71 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>162</v>
+        <v>502</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>156</v>
+        <v>507</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>78</v>
+        <v>508</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>234</v>
+        <v>78</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>235</v>
+        <v>510</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>78</v>
       </c>
@@ -12028,13 +12148,13 @@
         <v>78</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>78</v>
+        <v>512</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>78</v>
+        <v>513</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>78</v>
@@ -12052,39 +12172,39 @@
         <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>237</v>
+        <v>509</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>78</v>
+        <v>514</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12092,13 +12212,13 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>78</v>
@@ -12107,16 +12227,20 @@
         <v>78</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12140,13 +12264,13 @@
         <v>78</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>78</v>
+        <v>520</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>78</v>
@@ -12164,13 +12288,13 @@
         <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>78</v>
@@ -12179,13 +12303,13 @@
         <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>521</v>
+        <v>78</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>337</v>
+        <v>522</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>522</v>
+        <v>78</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>523</v>
@@ -12207,7 +12331,7 @@
         <v>76</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>78</v>
@@ -12219,7 +12343,7 @@
         <v>78</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>525</v>
@@ -12227,9 +12351,7 @@
       <c r="M90" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N90" t="s" s="2">
-        <v>527</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12254,13 +12376,13 @@
         <v>78</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>78</v>
@@ -12284,7 +12406,7 @@
         <v>76</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>78</v>
@@ -12296,13 +12418,13 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN90" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>78</v>
       </c>
     </row>
     <row r="91" hidden="true">
@@ -12321,7 +12443,7 @@
         <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>78</v>
@@ -12333,7 +12455,7 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>532</v>
@@ -12341,9 +12463,7 @@
       <c r="M91" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>534</v>
-      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12368,13 +12488,13 @@
         <v>78</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>275</v>
+        <v>110</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>78</v>
@@ -12398,7 +12518,7 @@
         <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>78</v>
@@ -12410,21 +12530,21 @@
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>78</v>
+        <v>536</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>78</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12447,13 +12567,13 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>202</v>
+        <v>498</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12504,7 +12624,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
@@ -12522,21 +12642,21 @@
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>330</v>
+        <v>541</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>78</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12559,13 +12679,13 @@
         <v>78</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>541</v>
+        <v>218</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12592,13 +12712,13 @@
         <v>78</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>78</v>
+        <v>546</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>78</v>
+        <v>547</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>78</v>
@@ -12616,7 +12736,7 @@
         <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
@@ -12631,24 +12751,24 @@
         <v>98</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12656,13 +12776,13 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>78</v>
@@ -12671,16 +12791,16 @@
         <v>78</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>547</v>
+        <v>271</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -12730,13 +12850,13 @@
         <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>78</v>
@@ -12745,20 +12865,1040 @@
         <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>551</v>
+        <v>78</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN94" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN94">
+  <autoFilter ref="A1:AN103">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12768,7 +13908,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI102">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T19:57:37+10:00</t>
+    <t>2024-06-28T20:58:40+10:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-eicr-anon-encounter.xlsx
+++ b/output/StructureDefinition-eicr-anon-encounter.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T20:58:40+10:00</t>
+    <t>2024-06-29T16:05:37+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -393,7 +393,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {`div` ~ '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;'}</t>
+eicr-anon-text:text.div SHALL be '&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;&lt;p&gt;MASKED&lt;/p&gt;&lt;/div&gt;' {exists() implies `div`.toString().matches('&lt;div xmlns="http://www.w3.org/1999/xhtml"&gt;\\s*&lt;p&gt;MASKED&lt;/p&gt;\\s*&lt;/div&gt;')}</t>
   </si>
   <si>
     <t>Act.text?</t>
